--- a/projects/test_building/input/Scenario_Ventilation_PenetrationRate.xlsx
+++ b/projects/test_building/input/Scenario_Ventilation_PenetrationRate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B545FD0B-4208-674F-8868-058496F4F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17355"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -176,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,54 +231,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:AS18" totalsRowShown="0">
-  <autoFilter ref="A1:AS18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AS18" totalsRowShown="0">
+  <autoFilter ref="A1:AS18"/>
   <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_region"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_sector"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_subsector"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="unit"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020"/>
-    <tableColumn id="2" xr3:uid="{A071E775-1DD5-A048-A858-AC31EF317E2D}" name="2021"/>
-    <tableColumn id="18" xr3:uid="{51D90C39-FCB4-B643-BB35-42006308A9CA}" name="2022"/>
-    <tableColumn id="19" xr3:uid="{89714C3B-D3DF-2C4E-9CE4-8ED2B44F724A}" name="2023"/>
-    <tableColumn id="20" xr3:uid="{A0C9DC20-CA83-3F45-BE39-D38E5CD9A0FE}" name="2024"/>
-    <tableColumn id="21" xr3:uid="{08D8F605-21C8-E24D-BA9A-0648637F1057}" name="2025"/>
-    <tableColumn id="22" xr3:uid="{678AE514-63F2-484B-8F6F-126A934FAFD3}" name="2026"/>
-    <tableColumn id="23" xr3:uid="{6C8E70B9-0068-A946-8E94-F0074248B88F}" name="2027"/>
-    <tableColumn id="24" xr3:uid="{C941FC08-1F4B-3B45-8FEA-859691DA810A}" name="2028"/>
-    <tableColumn id="25" xr3:uid="{DEA390B4-98E3-F84C-8D1B-829A91342DA6}" name="2029"/>
-    <tableColumn id="26" xr3:uid="{726B6569-8434-E44A-A2F2-7BF8EE699DEF}" name="2030"/>
-    <tableColumn id="27" xr3:uid="{0002871D-DD1C-3A49-AC75-D67C4E4A0E6A}" name="2031"/>
-    <tableColumn id="28" xr3:uid="{50EEB15F-169E-6E4B-8ABD-4E584C72E3D1}" name="2032"/>
-    <tableColumn id="29" xr3:uid="{7F4CC3DE-0898-C841-B360-C5AB1A0B961B}" name="2033"/>
-    <tableColumn id="30" xr3:uid="{B2ED027C-AA3D-1B49-AF03-BAD0EEFAAE73}" name="2034"/>
-    <tableColumn id="31" xr3:uid="{68513A65-2C47-4045-A86F-D3EBAD11315C}" name="2035"/>
-    <tableColumn id="32" xr3:uid="{AB341CFF-AA44-584A-A68A-1EBCB567AEB0}" name="2036"/>
-    <tableColumn id="33" xr3:uid="{A777A110-7CC3-AB4B-B4DA-038090A727CE}" name="2037"/>
-    <tableColumn id="34" xr3:uid="{54719B28-7B9E-784E-87AF-13D883B74CD4}" name="2038"/>
-    <tableColumn id="35" xr3:uid="{32E150CC-72E0-914F-B605-D0644A5EB722}" name="2039"/>
-    <tableColumn id="36" xr3:uid="{B879C85C-47C3-0A4A-9247-8B022036CCA6}" name="2040"/>
-    <tableColumn id="37" xr3:uid="{75C26F5D-72D1-894B-9A3B-010E11622C86}" name="2041"/>
-    <tableColumn id="38" xr3:uid="{81525295-62F5-CD4E-8070-1145BBC8625C}" name="2042"/>
-    <tableColumn id="39" xr3:uid="{326D6875-B124-DA4D-9A24-400CE939FC8C}" name="2043"/>
-    <tableColumn id="40" xr3:uid="{E0C2D864-EA4E-2141-BB4D-6E70318B5878}" name="2044"/>
-    <tableColumn id="41" xr3:uid="{F6447F8B-5AFD-2F41-B9F8-14EFABE94BAD}" name="2045"/>
-    <tableColumn id="42" xr3:uid="{DB15B009-E5B6-1149-835C-F5CBAD3F5B1C}" name="2046"/>
-    <tableColumn id="43" xr3:uid="{D3CE400C-1FB6-574E-8C46-BD1CBC6CD25A}" name="2047"/>
-    <tableColumn id="44" xr3:uid="{7104ABE3-C224-AD4C-85BD-763D3C62095B}" name="2048"/>
-    <tableColumn id="45" xr3:uid="{3881810E-96B0-794C-908D-19CAB8C7F168}" name="2049"/>
-    <tableColumn id="46" xr3:uid="{98484BB6-1B2D-A84F-BC02-377E8163E09A}" name="2050"/>
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="3" name="id_sector"/>
+    <tableColumn id="4" name="id_subsector"/>
+    <tableColumn id="6" name="unit"/>
+    <tableColumn id="7" name="2010"/>
+    <tableColumn id="8" name="2011"/>
+    <tableColumn id="9" name="2012"/>
+    <tableColumn id="10" name="2013"/>
+    <tableColumn id="11" name="2014"/>
+    <tableColumn id="12" name="2015"/>
+    <tableColumn id="13" name="2016"/>
+    <tableColumn id="14" name="2017"/>
+    <tableColumn id="15" name="2018"/>
+    <tableColumn id="16" name="2019"/>
+    <tableColumn id="17" name="2020"/>
+    <tableColumn id="2" name="2021"/>
+    <tableColumn id="18" name="2022"/>
+    <tableColumn id="19" name="2023"/>
+    <tableColumn id="20" name="2024"/>
+    <tableColumn id="21" name="2025"/>
+    <tableColumn id="22" name="2026"/>
+    <tableColumn id="23" name="2027"/>
+    <tableColumn id="24" name="2028"/>
+    <tableColumn id="25" name="2029"/>
+    <tableColumn id="26" name="2030"/>
+    <tableColumn id="27" name="2031"/>
+    <tableColumn id="28" name="2032"/>
+    <tableColumn id="29" name="2033"/>
+    <tableColumn id="30" name="2034"/>
+    <tableColumn id="31" name="2035"/>
+    <tableColumn id="32" name="2036"/>
+    <tableColumn id="33" name="2037"/>
+    <tableColumn id="34" name="2038"/>
+    <tableColumn id="35" name="2039"/>
+    <tableColumn id="36" name="2040"/>
+    <tableColumn id="37" name="2041"/>
+    <tableColumn id="38" name="2042"/>
+    <tableColumn id="39" name="2043"/>
+    <tableColumn id="40" name="2044"/>
+    <tableColumn id="41" name="2045"/>
+    <tableColumn id="42" name="2046"/>
+    <tableColumn id="43" name="2047"/>
+    <tableColumn id="44" name="2048"/>
+    <tableColumn id="45" name="2049"/>
+    <tableColumn id="46" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,20 +568,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -733,130 +732,130 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -870,130 +869,130 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1007,130 +1006,130 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1144,130 +1143,130 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1281,130 +1280,130 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1418,130 +1417,130 @@
         <v>13</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1555,130 +1554,130 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1692,130 +1691,130 @@
         <v>13</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1829,130 +1828,130 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1966,130 +1965,130 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2103,130 +2102,130 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2240,130 +2239,130 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2377,130 +2376,130 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2514,130 +2513,130 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2651,130 +2650,130 @@
         <v>13</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2788,130 +2787,130 @@
         <v>13</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -2925,127 +2924,127 @@
         <v>13</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/projects/test_building/input/Scenario_Ventilation_PenetrationRate.xlsx
+++ b/projects/test_building/input/Scenario_Ventilation_PenetrationRate.xlsx
@@ -571,14 +571,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">

--- a/projects/test_building/input/Scenario_Ventilation_PenetrationRate.xlsx
+++ b/projects/test_building/input/Scenario_Ventilation_PenetrationRate.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E87A2C8-380A-1640-A979-4C42D80824BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17355"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>id_region</t>
   </si>
@@ -170,12 +158,15 @@
   </si>
   <si>
     <t>2050</t>
+  </si>
+  <si>
+    <t>2009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,54 +222,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AS18" totalsRowShown="0">
-  <autoFilter ref="A1:AS18"/>
-  <tableColumns count="45">
-    <tableColumn id="1" name="id_region"/>
-    <tableColumn id="3" name="id_sector"/>
-    <tableColumn id="4" name="id_subsector"/>
-    <tableColumn id="6" name="unit"/>
-    <tableColumn id="7" name="2010"/>
-    <tableColumn id="8" name="2011"/>
-    <tableColumn id="9" name="2012"/>
-    <tableColumn id="10" name="2013"/>
-    <tableColumn id="11" name="2014"/>
-    <tableColumn id="12" name="2015"/>
-    <tableColumn id="13" name="2016"/>
-    <tableColumn id="14" name="2017"/>
-    <tableColumn id="15" name="2018"/>
-    <tableColumn id="16" name="2019"/>
-    <tableColumn id="17" name="2020"/>
-    <tableColumn id="2" name="2021"/>
-    <tableColumn id="18" name="2022"/>
-    <tableColumn id="19" name="2023"/>
-    <tableColumn id="20" name="2024"/>
-    <tableColumn id="21" name="2025"/>
-    <tableColumn id="22" name="2026"/>
-    <tableColumn id="23" name="2027"/>
-    <tableColumn id="24" name="2028"/>
-    <tableColumn id="25" name="2029"/>
-    <tableColumn id="26" name="2030"/>
-    <tableColumn id="27" name="2031"/>
-    <tableColumn id="28" name="2032"/>
-    <tableColumn id="29" name="2033"/>
-    <tableColumn id="30" name="2034"/>
-    <tableColumn id="31" name="2035"/>
-    <tableColumn id="32" name="2036"/>
-    <tableColumn id="33" name="2037"/>
-    <tableColumn id="34" name="2038"/>
-    <tableColumn id="35" name="2039"/>
-    <tableColumn id="36" name="2040"/>
-    <tableColumn id="37" name="2041"/>
-    <tableColumn id="38" name="2042"/>
-    <tableColumn id="39" name="2043"/>
-    <tableColumn id="40" name="2044"/>
-    <tableColumn id="41" name="2045"/>
-    <tableColumn id="42" name="2046"/>
-    <tableColumn id="43" name="2047"/>
-    <tableColumn id="44" name="2048"/>
-    <tableColumn id="45" name="2049"/>
-    <tableColumn id="46" name="2050"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:AT18" totalsRowShown="0">
+  <autoFilter ref="A1:AT18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="46">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_region"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_sector"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_subsector"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="unit"/>
+    <tableColumn id="5" xr3:uid="{8C64BBB9-9312-4041-9709-0008E5F7970A}" name="2009"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2021"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2022"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2023"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2024"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2025"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2026"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2027"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2028"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2029"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2030"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2031"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2032"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2033"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2034"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2035"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2036"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2037"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2038"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2039"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2040"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2041"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2042"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2043"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2044"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2045"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2046"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2047"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2048"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2049"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,20 +560,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,130 +587,133 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9</v>
       </c>
@@ -854,8 +849,11 @@
       <c r="AS2">
         <v>0.7</v>
       </c>
+      <c r="AT2">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9</v>
       </c>
@@ -991,8 +989,11 @@
       <c r="AS3">
         <v>0.7</v>
       </c>
+      <c r="AT3">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1128,8 +1129,11 @@
       <c r="AS4">
         <v>0.7</v>
       </c>
+      <c r="AT4">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1265,8 +1269,11 @@
       <c r="AS5">
         <v>0.7</v>
       </c>
+      <c r="AT5">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1402,8 +1409,11 @@
       <c r="AS6">
         <v>0.7</v>
       </c>
+      <c r="AT6">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1539,8 +1549,11 @@
       <c r="AS7">
         <v>0.7</v>
       </c>
+      <c r="AT7">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1676,8 +1689,11 @@
       <c r="AS8">
         <v>0.7</v>
       </c>
+      <c r="AT8">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1813,8 +1829,11 @@
       <c r="AS9">
         <v>0.7</v>
       </c>
+      <c r="AT9">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1950,8 +1969,11 @@
       <c r="AS10">
         <v>0.7</v>
       </c>
+      <c r="AT10">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2087,8 +2109,11 @@
       <c r="AS11">
         <v>0.7</v>
       </c>
+      <c r="AT11">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2224,8 +2249,11 @@
       <c r="AS12">
         <v>0.7</v>
       </c>
+      <c r="AT12">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2361,8 +2389,11 @@
       <c r="AS13">
         <v>0.7</v>
       </c>
+      <c r="AT13">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2498,8 +2529,11 @@
       <c r="AS14">
         <v>0.7</v>
       </c>
+      <c r="AT14">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2635,8 +2669,11 @@
       <c r="AS15">
         <v>0.7</v>
       </c>
+      <c r="AT15">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2772,8 +2809,11 @@
       <c r="AS16">
         <v>0.7</v>
       </c>
+      <c r="AT16">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2909,8 +2949,11 @@
       <c r="AS17">
         <v>0.7</v>
       </c>
+      <c r="AT17">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3044,6 +3087,9 @@
         <v>0.7</v>
       </c>
       <c r="AS18">
+        <v>0.7</v>
+      </c>
+      <c r="AT18">
         <v>0.7</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_Ventilation_PenetrationRate.xlsx
+++ b/projects/test_building/input/Scenario_Ventilation_PenetrationRate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E87A2C8-380A-1640-A979-4C42D80824BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195CB5CA-7561-FF41-A19D-2B004101958B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>2015</t>
   </si>
   <si>
-    <t>percentage</t>
-  </si>
-  <si>
     <t>id_subsector</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>2009</t>
+  </si>
+  <si>
+    <t>fraction</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:AT18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -578,16 +578,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -623,94 +623,94 @@
         <v>6</v>
       </c>
       <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>0.7</v>
@@ -864,7 +864,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0.7</v>
@@ -1004,7 +1004,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>0.7</v>
@@ -1144,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -1284,7 +1284,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0.7</v>
@@ -1424,7 +1424,7 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0.7</v>
@@ -1564,7 +1564,7 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>0.7</v>
@@ -1704,7 +1704,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>0.7</v>
@@ -1844,7 +1844,7 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0.7</v>
@@ -1984,7 +1984,7 @@
         <v>310</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>0.7</v>
@@ -2124,7 +2124,7 @@
         <v>311</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.7</v>
@@ -2264,7 +2264,7 @@
         <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>0.7</v>
@@ -2404,7 +2404,7 @@
         <v>313</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>0.7</v>
@@ -2544,7 +2544,7 @@
         <v>314</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>0.7</v>
@@ -2684,7 +2684,7 @@
         <v>315</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0.7</v>
@@ -2824,7 +2824,7 @@
         <v>316</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>0.7</v>
@@ -2964,7 +2964,7 @@
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>0.7</v>

--- a/projects/test_building/input/Scenario_Ventilation_PenetrationRate.xlsx
+++ b/projects/test_building/input/Scenario_Ventilation_PenetrationRate.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195CB5CA-7561-FF41-A19D-2B004101958B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360"/>
   </bookViews>
   <sheets>
-    <sheet name="updated" sheetId="4" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -166,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,55 +221,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:AT18" totalsRowShown="0">
-  <autoFilter ref="A1:AT18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AT18" totalsRowShown="0">
+  <autoFilter ref="A1:AT18"/>
   <tableColumns count="46">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_region"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_sector"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_subsector"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="unit"/>
-    <tableColumn id="5" xr3:uid="{8C64BBB9-9312-4041-9709-0008E5F7970A}" name="2009"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2021"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2022"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2023"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2024"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2025"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2026"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2027"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2028"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2029"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2030"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2031"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2032"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2033"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2034"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2035"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2036"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2037"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2038"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2039"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2040"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2041"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2042"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2043"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2044"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2045"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2046"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2047"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2048"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2049"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2050"/>
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="3" name="id_sector"/>
+    <tableColumn id="4" name="id_subsector"/>
+    <tableColumn id="6" name="unit"/>
+    <tableColumn id="5" name="2009"/>
+    <tableColumn id="7" name="2010"/>
+    <tableColumn id="8" name="2011"/>
+    <tableColumn id="9" name="2012"/>
+    <tableColumn id="10" name="2013"/>
+    <tableColumn id="11" name="2014"/>
+    <tableColumn id="12" name="2015"/>
+    <tableColumn id="13" name="2016"/>
+    <tableColumn id="14" name="2017"/>
+    <tableColumn id="15" name="2018"/>
+    <tableColumn id="16" name="2019"/>
+    <tableColumn id="17" name="2020"/>
+    <tableColumn id="2" name="2021"/>
+    <tableColumn id="18" name="2022"/>
+    <tableColumn id="19" name="2023"/>
+    <tableColumn id="20" name="2024"/>
+    <tableColumn id="21" name="2025"/>
+    <tableColumn id="22" name="2026"/>
+    <tableColumn id="23" name="2027"/>
+    <tableColumn id="24" name="2028"/>
+    <tableColumn id="25" name="2029"/>
+    <tableColumn id="26" name="2030"/>
+    <tableColumn id="27" name="2031"/>
+    <tableColumn id="28" name="2032"/>
+    <tableColumn id="29" name="2033"/>
+    <tableColumn id="30" name="2034"/>
+    <tableColumn id="31" name="2035"/>
+    <tableColumn id="32" name="2036"/>
+    <tableColumn id="33" name="2037"/>
+    <tableColumn id="34" name="2038"/>
+    <tableColumn id="35" name="2039"/>
+    <tableColumn id="36" name="2040"/>
+    <tableColumn id="37" name="2041"/>
+    <tableColumn id="38" name="2042"/>
+    <tableColumn id="39" name="2043"/>
+    <tableColumn id="40" name="2044"/>
+    <tableColumn id="41" name="2045"/>
+    <tableColumn id="42" name="2046"/>
+    <tableColumn id="43" name="2047"/>
+    <tableColumn id="44" name="2048"/>
+    <tableColumn id="45" name="2049"/>
+    <tableColumn id="46" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,20 +559,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
@@ -853,7 +852,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
@@ -993,7 +992,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1553,7 +1552,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1833,7 +1832,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2533,7 +2532,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2673,7 +2672,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>9</v>
       </c>
